--- a/biology/Médecine/Nguyen_Ngoc_Bich/Nguyen_Ngoc_Bich.xlsx
+++ b/biology/Médecine/Nguyen_Ngoc_Bich/Nguyen_Ngoc_Bich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nguyen Ngoc Bich (1911-1966) est un ingénieur, médecin, intellectuel et homme politique vietnamien. Ancien résistant contre la colonisation française[1][note 1], il a proposé un point de vue alternatif pour éviter la sanglante guerre fratricide entre le Nord Vietnam et le Sud Viêt Nam[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nguyen Ngoc Bich (1911-1966) est un ingénieur, médecin, intellectuel et homme politique vietnamien. Ancien résistant contre la colonisation française[note 1], il a proposé un point de vue alternatif pour éviter la sanglante guerre fratricide entre le Nord Vietnam et le Sud Viêt Nam.
 La rue Nguyen-Ngoc-Bich dans la ville de Cần Thơ dans le delta du Mékong, au Viêt Nam, porte son nom pour honorer et commémorer ses exploits (de saboter des ponts pour ralentir les avancées de l'armée coloniale française) et son héroïsme (emprisonné, soumis à une interrogatoire « désagréable » qui a laissée une marque sur son front, et exilé) pendant la Première Guerre d'Indochine (française).
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir obtenu son diplôme de l'École polytechnique (école militaire sous tutelle du Ministère des Armées formant des ingénieurs) puis de l'École nationale des ponts et chaussées (génie civil) en France en 1935[3], Nguyen Ngoc Bich travaille pour le gouvernement colonial français à son retour au Vietnam. Après la Seconde Guerre mondiale, il devient un haut commandant du mouvement de résistance vietnamien et insiste à lutter pour l'indépendance du Vietnam, à l'inverse du communisme. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir obtenu son diplôme de l'École polytechnique (école militaire sous tutelle du Ministère des Armées formant des ingénieurs) puis de l'École nationale des ponts et chaussées (génie civil) en France en 1935, Nguyen Ngoc Bich travaille pour le gouvernement colonial français à son retour au Vietnam. Après la Seconde Guerre mondiale, il devient un haut commandant du mouvement de résistance vietnamien et insiste à lutter pour l'indépendance du Vietnam, à l'inverse du communisme. 
 Soupçonnant d'avoir été trahi par son côté et appréhendé par les forces françaises, il est sauvé de l'exécution par une campagne d'amnistie de ses camarades de l'École polytechnique basés au Vietnam, la plupart étant des officiers supérieurs de l'armée française. Il est par la suite exilé en France, où il fondera à Paris avec ses amis la maison d'édition vietnamienne Minh Tan, qui publiera de nombreux ouvrages importants pour la littérature vietnamienne.
-Il était très apprécié dans la politique vietnamienne et considéré par beaucoup[note 2] comme une alternative à Ngô Đình Diệm en tant que président du Sud-Viêt Nam. Sa candidature à l'élection présidentielle de 1961 en opposition à Diem est cependant déclarée invalide par les autorités de Saïgon au dernier moment pour des « raisons techniques »[4],[3],[5].
+Il était très apprécié dans la politique vietnamienne et considéré par beaucoup[note 2] comme une alternative à Ngô Đình Diệm en tant que président du Sud-Viêt Nam. Sa candidature à l'élection présidentielle de 1961 en opposition à Diem est cependant déclarée invalide par les autorités de Saïgon au dernier moment pour des « raisons techniques ».
 </t>
         </is>
       </c>
